--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Gdf11-Acvr1b.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Gdf11-Acvr1b.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.22976146030151</v>
+        <v>1.296436</v>
       </c>
       <c r="H2">
-        <v>1.22976146030151</v>
+        <v>3.889308000000001</v>
       </c>
       <c r="I2">
-        <v>0.1901420308709469</v>
+        <v>0.1944674516316147</v>
       </c>
       <c r="J2">
-        <v>0.1901420308709469</v>
+        <v>0.1944674516316147</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.06748847699187</v>
+        <v>4.453045666666667</v>
       </c>
       <c r="N2">
-        <v>4.06748847699187</v>
+        <v>13.359137</v>
       </c>
       <c r="O2">
-        <v>0.4245819953165797</v>
+        <v>0.4394129038053478</v>
       </c>
       <c r="P2">
-        <v>0.4245819953165797</v>
+        <v>0.4394129038053478</v>
       </c>
       <c r="Q2">
-        <v>5.002040569225087</v>
+        <v>5.773088711910668</v>
       </c>
       <c r="R2">
-        <v>5.002040569225087</v>
+        <v>51.95779840719601</v>
       </c>
       <c r="S2">
-        <v>0.08073088286073331</v>
+        <v>0.08545150761707386</v>
       </c>
       <c r="T2">
-        <v>0.08073088286073331</v>
+        <v>0.08545150761707385</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.22976146030151</v>
+        <v>1.296436</v>
       </c>
       <c r="H3">
-        <v>1.22976146030151</v>
+        <v>3.889308000000001</v>
       </c>
       <c r="I3">
-        <v>0.1901420308709469</v>
+        <v>0.1944674516316147</v>
       </c>
       <c r="J3">
-        <v>0.1901420308709469</v>
+        <v>0.1944674516316147</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.10486714779939</v>
+        <v>3.150099666666667</v>
       </c>
       <c r="N3">
-        <v>3.10486714779939</v>
+        <v>9.450299000000001</v>
       </c>
       <c r="O3">
-        <v>0.3240994280039107</v>
+        <v>0.3108421842981904</v>
       </c>
       <c r="P3">
-        <v>0.3240994280039107</v>
+        <v>0.3108421842981904</v>
       </c>
       <c r="Q3">
-        <v>3.818245957719962</v>
+        <v>4.083902611454667</v>
       </c>
       <c r="R3">
-        <v>3.818245957719962</v>
+        <v>36.75512350309201</v>
       </c>
       <c r="S3">
-        <v>0.0616249234447758</v>
+        <v>0.06044868744007383</v>
       </c>
       <c r="T3">
-        <v>0.0616249234447758</v>
+        <v>0.06044868744007381</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.22976146030151</v>
+        <v>1.296436</v>
       </c>
       <c r="H4">
-        <v>1.22976146030151</v>
+        <v>3.889308000000001</v>
       </c>
       <c r="I4">
-        <v>0.1901420308709469</v>
+        <v>0.1944674516316147</v>
       </c>
       <c r="J4">
-        <v>0.1901420308709469</v>
+        <v>0.1944674516316147</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.40762779857327</v>
+        <v>2.530935</v>
       </c>
       <c r="N4">
-        <v>2.40762779857327</v>
+        <v>7.592805</v>
       </c>
       <c r="O4">
-        <v>0.2513185766795096</v>
+        <v>0.2497449118964618</v>
       </c>
       <c r="P4">
-        <v>0.2513185766795096</v>
+        <v>0.2497449118964618</v>
       </c>
       <c r="Q4">
-        <v>2.960807877435974</v>
+        <v>3.28119524766</v>
       </c>
       <c r="R4">
-        <v>2.960807877435974</v>
+        <v>29.53075722894</v>
       </c>
       <c r="S4">
-        <v>0.04778622456543775</v>
+        <v>0.04856725657446708</v>
       </c>
       <c r="T4">
-        <v>0.04778622456543775</v>
+        <v>0.04856725657446708</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.77997283067663</v>
+        <v>1.837275666666667</v>
       </c>
       <c r="H5">
-        <v>1.77997283067663</v>
+        <v>5.511827</v>
       </c>
       <c r="I5">
-        <v>0.2752140637396318</v>
+        <v>0.2755942575194169</v>
       </c>
       <c r="J5">
-        <v>0.2752140637396318</v>
+        <v>0.2755942575194169</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.06748847699187</v>
+        <v>4.453045666666667</v>
       </c>
       <c r="N5">
-        <v>4.06748847699187</v>
+        <v>13.359137</v>
       </c>
       <c r="O5">
-        <v>0.4245819953165797</v>
+        <v>0.4394129038053478</v>
       </c>
       <c r="P5">
-        <v>0.4245819953165797</v>
+        <v>0.4394129038053478</v>
       </c>
       <c r="Q5">
-        <v>7.240018978135794</v>
+        <v>8.181472445922113</v>
       </c>
       <c r="R5">
-        <v>7.240018978135794</v>
+        <v>73.633252013299</v>
       </c>
       <c r="S5">
-        <v>0.1168509363217572</v>
+        <v>0.1210996729686858</v>
       </c>
       <c r="T5">
-        <v>0.1168509363217572</v>
+        <v>0.1210996729686857</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.77997283067663</v>
+        <v>1.837275666666667</v>
       </c>
       <c r="H6">
-        <v>1.77997283067663</v>
+        <v>5.511827</v>
       </c>
       <c r="I6">
-        <v>0.2752140637396318</v>
+        <v>0.2755942575194169</v>
       </c>
       <c r="J6">
-        <v>0.2752140637396318</v>
+        <v>0.2755942575194169</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.10486714779939</v>
+        <v>3.150099666666667</v>
       </c>
       <c r="N6">
-        <v>3.10486714779939</v>
+        <v>9.450299000000001</v>
       </c>
       <c r="O6">
-        <v>0.3240994280039107</v>
+        <v>0.3108421842981904</v>
       </c>
       <c r="P6">
-        <v>0.3240994280039107</v>
+        <v>0.3108421842981904</v>
       </c>
       <c r="Q6">
-        <v>5.526579165943355</v>
+        <v>5.787601465141446</v>
       </c>
       <c r="R6">
-        <v>5.526579165943355</v>
+        <v>52.08841318627301</v>
       </c>
       <c r="S6">
-        <v>0.08919672063664648</v>
+        <v>0.08566632098737353</v>
       </c>
       <c r="T6">
-        <v>0.08919672063664648</v>
+        <v>0.08566632098737352</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.77997283067663</v>
+        <v>1.837275666666667</v>
       </c>
       <c r="H7">
-        <v>1.77997283067663</v>
+        <v>5.511827</v>
       </c>
       <c r="I7">
-        <v>0.2752140637396318</v>
+        <v>0.2755942575194169</v>
       </c>
       <c r="J7">
-        <v>0.2752140637396318</v>
+        <v>0.2755942575194169</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.40762779857327</v>
+        <v>2.530935</v>
       </c>
       <c r="N7">
-        <v>2.40762779857327</v>
+        <v>7.592805</v>
       </c>
       <c r="O7">
-        <v>0.2513185766795096</v>
+        <v>0.2497449118964618</v>
       </c>
       <c r="P7">
-        <v>0.2513185766795096</v>
+        <v>0.2497449118964618</v>
       </c>
       <c r="Q7">
-        <v>4.285512067842206</v>
+        <v>4.650025289415</v>
       </c>
       <c r="R7">
-        <v>4.285512067842206</v>
+        <v>41.850227604735</v>
       </c>
       <c r="S7">
-        <v>0.06916640678122811</v>
+        <v>0.06882826356335757</v>
       </c>
       <c r="T7">
-        <v>0.06916640678122811</v>
+        <v>0.06882826356335757</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.45785972108</v>
+        <v>3.532884666666666</v>
       </c>
       <c r="H8">
-        <v>3.45785972108</v>
+        <v>10.598654</v>
       </c>
       <c r="I8">
-        <v>0.5346439053894213</v>
+        <v>0.5299382908489685</v>
       </c>
       <c r="J8">
-        <v>0.5346439053894213</v>
+        <v>0.5299382908489685</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.06748847699187</v>
+        <v>4.453045666666667</v>
       </c>
       <c r="N8">
-        <v>4.06748847699187</v>
+        <v>13.359137</v>
       </c>
       <c r="O8">
-        <v>0.4245819953165797</v>
+        <v>0.4394129038053478</v>
       </c>
       <c r="P8">
-        <v>0.4245819953165797</v>
+        <v>0.4394129038053478</v>
       </c>
       <c r="Q8">
-        <v>14.06480457054722</v>
+        <v>15.73209675573311</v>
       </c>
       <c r="R8">
-        <v>14.06480457054722</v>
+        <v>141.588870801598</v>
       </c>
       <c r="S8">
-        <v>0.2270001761340892</v>
+        <v>0.2328617232195882</v>
       </c>
       <c r="T8">
-        <v>0.2270001761340892</v>
+        <v>0.2328617232195882</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.45785972108</v>
+        <v>3.532884666666666</v>
       </c>
       <c r="H9">
-        <v>3.45785972108</v>
+        <v>10.598654</v>
       </c>
       <c r="I9">
-        <v>0.5346439053894213</v>
+        <v>0.5299382908489685</v>
       </c>
       <c r="J9">
-        <v>0.5346439053894213</v>
+        <v>0.5299382908489685</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.10486714779939</v>
+        <v>3.150099666666667</v>
       </c>
       <c r="N9">
-        <v>3.10486714779939</v>
+        <v>9.450299000000001</v>
       </c>
       <c r="O9">
-        <v>0.3240994280039107</v>
+        <v>0.3108421842981904</v>
       </c>
       <c r="P9">
-        <v>0.3240994280039107</v>
+        <v>0.3108421842981904</v>
       </c>
       <c r="Q9">
-        <v>10.73619504968005</v>
+        <v>11.12893881083845</v>
       </c>
       <c r="R9">
-        <v>10.73619504968005</v>
+        <v>100.160449297546</v>
       </c>
       <c r="S9">
-        <v>0.1732777839224884</v>
+        <v>0.1647271758707431</v>
       </c>
       <c r="T9">
-        <v>0.1732777839224884</v>
+        <v>0.1647271758707431</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.45785972108</v>
+        <v>3.532884666666666</v>
       </c>
       <c r="H10">
-        <v>3.45785972108</v>
+        <v>10.598654</v>
       </c>
       <c r="I10">
-        <v>0.5346439053894213</v>
+        <v>0.5299382908489685</v>
       </c>
       <c r="J10">
-        <v>0.5346439053894213</v>
+        <v>0.5299382908489685</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.40762779857327</v>
+        <v>2.530935</v>
       </c>
       <c r="N10">
-        <v>2.40762779857327</v>
+        <v>7.592805</v>
       </c>
       <c r="O10">
-        <v>0.2513185766795096</v>
+        <v>0.2497449118964618</v>
       </c>
       <c r="P10">
-        <v>0.2513185766795096</v>
+        <v>0.2497449118964618</v>
       </c>
       <c r="Q10">
-        <v>8.325239188039022</v>
+        <v>8.94150145383</v>
       </c>
       <c r="R10">
-        <v>8.325239188039022</v>
+        <v>80.47351308447</v>
       </c>
       <c r="S10">
-        <v>0.1343659453328438</v>
+        <v>0.1323493917586372</v>
       </c>
       <c r="T10">
-        <v>0.1343659453328438</v>
+        <v>0.1323493917586372</v>
       </c>
     </row>
   </sheetData>
